--- a/imports/subdepartments_import.xlsx
+++ b/imports/subdepartments_import.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\professionals 2025\champ\champ\real imports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\professionals 2025\professionals\Designing\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F7C7D2-1005-4A4E-8AB5-CAEC4841B01A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE164A30-9FBA-4480-BC50-E751E642B94B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>1. Административный департамент</t>
   </si>
@@ -175,6 +175,15 @@
   </si>
   <si>
     <t>Название подразделения</t>
+  </si>
+  <si>
+    <t>Дороги России</t>
+  </si>
+  <si>
+    <t>Верхнее подразделение</t>
+  </si>
+  <si>
+    <t>1.5. Отдел протокольного сопровождения</t>
   </si>
 </sst>
 </file>
@@ -205,7 +214,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -252,11 +261,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCC085"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFCCC085"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -276,11 +296,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
       <font>
         <b val="0"/>
@@ -300,6 +326,20 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFCCC085"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FFCCC085"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCC085"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -342,6 +382,26 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -356,13 +416,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9B6095DF-AD92-4065-9BD9-CFC1B9A81E04}" name="Таблица1" displayName="Таблица1" ref="A1:A160" totalsRowShown="0" dataDxfId="0" tableBorderDxfId="2">
-  <autoFilter ref="A1:A160" xr:uid="{33E874D6-6FCC-4F27-B26F-4AA4C35012C6}"/>
-  <sortState ref="A2:A160">
-    <sortCondition ref="A1:A160"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9B6095DF-AD92-4065-9BD9-CFC1B9A81E04}" name="Таблица1" displayName="Таблица1" ref="A1:B161" totalsRowShown="0" dataDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="A1:B161" xr:uid="{33E874D6-6FCC-4F27-B26F-4AA4C35012C6}"/>
+  <sortState ref="A2:A161">
+    <sortCondition ref="A1:A161"/>
   </sortState>
-  <tableColumns count="1">
+  <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{5FC53807-94A6-4F71-A48F-A85C4B1229F3}" name="Название подразделения" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{6024C29E-4B9E-45E2-88BB-4E9AF753252B}" name="Верхнее подразделение" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -631,610 +692,880 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A171"/>
+  <dimension ref="A1:B171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="B8" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="B9" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="B12" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="B13" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="B14" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="B16" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="B17" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="B18" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="B19" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="B20" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="B22" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="B24" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="B25" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="B27" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="B28" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="B29" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="B31" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="B33" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="B34" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="B36" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="B37" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="B38" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="B39" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="B40" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="B41" s="3">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+    <row r="42" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="B43" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="B44" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="B45" s="3">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="B47" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+      <c r="B48" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="B49" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="B50" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-    </row>
-    <row r="53" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-    </row>
-    <row r="56" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-    </row>
-    <row r="58" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="3"/>
+    </row>
+    <row r="55" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="3"/>
+    </row>
+    <row r="56" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5"/>
+      <c r="B56" s="3"/>
+    </row>
+    <row r="57" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="3"/>
+    </row>
+    <row r="59" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="3"/>
+    </row>
+    <row r="60" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-    </row>
-    <row r="61" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="3"/>
+    </row>
+    <row r="61" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="3"/>
+    </row>
+    <row r="62" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-    </row>
-    <row r="64" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="3"/>
+    </row>
+    <row r="64" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-    </row>
-    <row r="65" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="3"/>
+    </row>
+    <row r="65" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-    </row>
-    <row r="66" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="3"/>
+    </row>
+    <row r="66" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
-    </row>
-    <row r="67" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="3"/>
+    </row>
+    <row r="67" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
-    </row>
-    <row r="68" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="3"/>
+    </row>
+    <row r="68" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-    </row>
-    <row r="69" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-    </row>
-    <row r="70" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="3"/>
+    </row>
+    <row r="69" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="3"/>
+    </row>
+    <row r="70" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
-    </row>
-    <row r="71" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-    </row>
-    <row r="72" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
-    </row>
-    <row r="73" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="3"/>
+    </row>
+    <row r="71" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+      <c r="B71" s="3"/>
+    </row>
+    <row r="72" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="3"/>
+    </row>
+    <row r="73" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
-    </row>
-    <row r="74" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-    </row>
-    <row r="75" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
-    </row>
-    <row r="76" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-    </row>
-    <row r="77" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
-    </row>
-    <row r="78" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="3"/>
+    </row>
+    <row r="74" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+      <c r="B74" s="3"/>
+    </row>
+    <row r="75" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="3"/>
+    </row>
+    <row r="76" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+      <c r="B76" s="3"/>
+    </row>
+    <row r="77" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="3"/>
+    </row>
+    <row r="78" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
-    </row>
-    <row r="79" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-    </row>
-    <row r="80" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="3"/>
+    </row>
+    <row r="79" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2"/>
+      <c r="B79" s="3"/>
+    </row>
+    <row r="80" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-    </row>
-    <row r="81" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
-    </row>
-    <row r="82" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-    </row>
-    <row r="83" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="3"/>
+    </row>
+    <row r="81" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="3"/>
+    </row>
+    <row r="82" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2"/>
+      <c r="B82" s="3"/>
+    </row>
+    <row r="83" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
-    </row>
-    <row r="84" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="3"/>
+    </row>
+    <row r="84" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
-    </row>
-    <row r="85" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="2"/>
-    </row>
-    <row r="86" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
-    </row>
-    <row r="87" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
-    </row>
-    <row r="88" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="3"/>
+    </row>
+    <row r="85" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="3"/>
+    </row>
+    <row r="86" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2"/>
+      <c r="B86" s="3"/>
+    </row>
+    <row r="87" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="3"/>
+    </row>
+    <row r="88" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
-    </row>
-    <row r="89" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
-    </row>
-    <row r="90" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
-    </row>
-    <row r="91" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="3"/>
+    </row>
+    <row r="89" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2"/>
+      <c r="B89" s="3"/>
+    </row>
+    <row r="90" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="B90" s="3"/>
+    </row>
+    <row r="91" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
-    </row>
-    <row r="92" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
-    </row>
-    <row r="93" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="2"/>
-    </row>
-    <row r="94" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
-    </row>
-    <row r="95" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="2"/>
-    </row>
-    <row r="96" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="3"/>
+    </row>
+    <row r="92" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2"/>
+      <c r="B92" s="3"/>
+    </row>
+    <row r="93" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="3"/>
+    </row>
+    <row r="94" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2"/>
+      <c r="B94" s="3"/>
+    </row>
+    <row r="95" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="B95" s="3"/>
+    </row>
+    <row r="96" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
-    </row>
-    <row r="97" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
-    </row>
-    <row r="98" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="3"/>
+    </row>
+    <row r="97" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2"/>
+      <c r="B97" s="3"/>
+    </row>
+    <row r="98" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
-    </row>
-    <row r="99" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="3"/>
+    </row>
+    <row r="99" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
-    </row>
-    <row r="100" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="2"/>
-    </row>
-    <row r="101" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
-    </row>
-    <row r="102" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="2"/>
-    </row>
-    <row r="103" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
-    </row>
-    <row r="104" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="3"/>
+    </row>
+    <row r="100" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="B100" s="3"/>
+    </row>
+    <row r="101" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="2"/>
+      <c r="B101" s="3"/>
+    </row>
+    <row r="102" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="B102" s="3"/>
+    </row>
+    <row r="103" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2"/>
+      <c r="B103" s="3"/>
+    </row>
+    <row r="104" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
-    </row>
-    <row r="105" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="2"/>
-    </row>
-    <row r="106" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
-    </row>
-    <row r="107" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="3"/>
+    </row>
+    <row r="105" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+      <c r="B105" s="3"/>
+    </row>
+    <row r="106" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="2"/>
+      <c r="B106" s="3"/>
+    </row>
+    <row r="107" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
-    </row>
-    <row r="108" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="3"/>
+    </row>
+    <row r="108" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
-    </row>
-    <row r="109" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="2"/>
-    </row>
-    <row r="110" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
-    </row>
-    <row r="111" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="3"/>
+    </row>
+    <row r="109" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+      <c r="B109" s="3"/>
+    </row>
+    <row r="110" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="2"/>
+      <c r="B110" s="3"/>
+    </row>
+    <row r="111" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
-    </row>
-    <row r="112" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="3"/>
+    </row>
+    <row r="112" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
-    </row>
-    <row r="113" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="3"/>
+    </row>
+    <row r="113" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
-    </row>
-    <row r="114" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="2"/>
-    </row>
-    <row r="115" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
-    </row>
-    <row r="116" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="3"/>
+    </row>
+    <row r="114" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+      <c r="B114" s="3"/>
+    </row>
+    <row r="115" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="2"/>
+      <c r="B115" s="3"/>
+    </row>
+    <row r="116" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
-    </row>
-    <row r="117" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="3"/>
+    </row>
+    <row r="117" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
-    </row>
-    <row r="118" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="3"/>
+    </row>
+    <row r="118" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
-    </row>
-    <row r="119" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="3"/>
+    </row>
+    <row r="119" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
-    </row>
-    <row r="120" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="2"/>
-    </row>
-    <row r="121" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="3"/>
+    </row>
+    <row r="120" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1"/>
+      <c r="B120" s="3"/>
+    </row>
+    <row r="121" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
-    </row>
-    <row r="122" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="1"/>
-    </row>
-    <row r="123" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="3"/>
+    </row>
+    <row r="122" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="2"/>
+      <c r="B122" s="3"/>
+    </row>
+    <row r="123" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
-    </row>
-    <row r="124" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="3"/>
+    </row>
+    <row r="124" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
-    </row>
-    <row r="125" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="2"/>
-    </row>
-    <row r="126" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1"/>
-    </row>
-    <row r="127" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="3"/>
+    </row>
+    <row r="125" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1"/>
+      <c r="B125" s="3"/>
+    </row>
+    <row r="126" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="2"/>
+      <c r="B126" s="3"/>
+    </row>
+    <row r="127" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
-    </row>
-    <row r="128" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="2"/>
-    </row>
-    <row r="129" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
-    </row>
-    <row r="130" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="3"/>
+    </row>
+    <row r="128" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1"/>
+      <c r="B128" s="3"/>
+    </row>
+    <row r="129" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="2"/>
+      <c r="B129" s="3"/>
+    </row>
+    <row r="130" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
-    </row>
-    <row r="131" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="3"/>
+    </row>
+    <row r="131" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
-    </row>
-    <row r="132" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="3"/>
+    </row>
+    <row r="132" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
-    </row>
-    <row r="133" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="2"/>
-    </row>
-    <row r="134" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="3"/>
+    </row>
+    <row r="133" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1"/>
+      <c r="B133" s="3"/>
+    </row>
+    <row r="134" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
-    </row>
-    <row r="135" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="1"/>
-    </row>
-    <row r="136" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="3"/>
+    </row>
+    <row r="135" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="2"/>
+      <c r="B135" s="3"/>
+    </row>
+    <row r="136" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
-    </row>
-    <row r="137" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="3"/>
+    </row>
+    <row r="137" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
-    </row>
-    <row r="138" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="3"/>
+    </row>
+    <row r="138" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
-    </row>
-    <row r="139" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="3"/>
+    </row>
+    <row r="139" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
-    </row>
-    <row r="140" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="3"/>
+    </row>
+    <row r="140" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
-    </row>
-    <row r="141" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="3"/>
+    </row>
+    <row r="141" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
-    </row>
-    <row r="142" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="3"/>
+    </row>
+    <row r="142" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
-    </row>
-    <row r="143" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="3"/>
+    </row>
+    <row r="143" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
-    </row>
-    <row r="144" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="2"/>
-    </row>
-    <row r="145" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="3"/>
+    </row>
+    <row r="144" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1"/>
+      <c r="B144" s="3"/>
+    </row>
+    <row r="145" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
-    </row>
-    <row r="146" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="1"/>
-    </row>
-    <row r="147" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="3"/>
+    </row>
+    <row r="146" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="2"/>
+      <c r="B146" s="3"/>
+    </row>
+    <row r="147" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
-    </row>
-    <row r="148" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="3"/>
+    </row>
+    <row r="148" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
-    </row>
-    <row r="149" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="2"/>
-    </row>
-    <row r="150" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="1"/>
-    </row>
-    <row r="151" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="3"/>
+    </row>
+    <row r="149" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1"/>
+      <c r="B149" s="3"/>
+    </row>
+    <row r="150" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="2"/>
+      <c r="B150" s="3"/>
+    </row>
+    <row r="151" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
-    </row>
-    <row r="152" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="3"/>
+    </row>
+    <row r="152" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
-    </row>
-    <row r="153" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="3"/>
+    </row>
+    <row r="153" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
-    </row>
-    <row r="154" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="2"/>
-    </row>
-    <row r="155" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="1"/>
-    </row>
-    <row r="156" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="3"/>
+    </row>
+    <row r="154" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1"/>
+      <c r="B154" s="3"/>
+    </row>
+    <row r="155" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="2"/>
+      <c r="B155" s="3"/>
+    </row>
+    <row r="156" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
-    </row>
-    <row r="157" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="2"/>
-    </row>
-    <row r="158" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="3"/>
+    </row>
+    <row r="157" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1"/>
+      <c r="B157" s="3"/>
+    </row>
+    <row r="158" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
-    </row>
-    <row r="159" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="1"/>
-    </row>
-    <row r="160" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="6"/>
-    </row>
-    <row r="161" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="1"/>
-    </row>
-    <row r="162" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B158" s="3"/>
+    </row>
+    <row r="159" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="2"/>
+      <c r="B159" s="3"/>
+    </row>
+    <row r="160" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="1"/>
+      <c r="B160" s="3"/>
+    </row>
+    <row r="161" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="6"/>
+      <c r="B161" s="8"/>
+    </row>
+    <row r="162" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="1"/>
+    </row>
+    <row r="163" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
